--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -126,24 +126,6 @@
   </si>
   <si>
     <t>network/服务器表.xlsx</t>
-  </si>
-  <si>
-    <t>world.TbTile</t>
-  </si>
-  <si>
-    <t>Tile</t>
-  </si>
-  <si>
-    <t>world/瓦片表.xlsx</t>
-  </si>
-  <si>
-    <t>world.TbMapRegion</t>
-  </si>
-  <si>
-    <t>MapRegion</t>
-  </si>
-  <si>
-    <t>world/地图区域表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -759,14 +741,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1226,38 +1205,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" customFormat="1" spans="2:7">
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
